--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3993.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3993.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.356248030807291</v>
+        <v>1.021625995635986</v>
       </c>
       <c r="B1">
-        <v>2.562949574587578</v>
+        <v>2.758477449417114</v>
       </c>
       <c r="C1">
-        <v>3.434975260111309</v>
+        <v>6.743141651153564</v>
       </c>
       <c r="D1">
-        <v>4.074508704146736</v>
+        <v>4.099586963653564</v>
       </c>
       <c r="E1">
-        <v>1.542574315866886</v>
+        <v>1.432390093803406</v>
       </c>
     </row>
   </sheetData>
